--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1180492.945015321</v>
+        <v>1178286.851608882</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.68260473</v>
+        <v>7094780.682604727</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>54.42587438645837</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841482</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15.45242503776815</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866713</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>38.86775971342697</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.95263903154869</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.8809963801552</v>
+        <v>57.88099638015539</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.3932628170812</v>
+        <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8965846405547</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>132.6608848632687</v>
       </c>
       <c r="U4" t="n">
-        <v>64.72253987877465</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>316.1730805916027</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>99.90187484148926</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>381.6170154058312</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>72.65793777463499</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.45797858609773</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.0036813130048</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590289</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.99776488421828</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873209</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.8124928026228</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.223267762591042</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>67.03876264822793</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>214.0003484772241</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.4223484152683</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>24.16451080669736</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>87.34245228679266</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>8.002633610757584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>239.6003837690086</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>181.4487096095776</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744755</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>248.6564574003641</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.56505621326075</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491554</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880105</v>
+        <v>6.081513486880127</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535743</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C37" t="n">
         <v>131.751404812582</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>11.22989071230174</v>
       </c>
       <c r="F37" t="n">
-        <v>91.5150254891204</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
         <v>130.5303919729824</v>
@@ -3442,7 +3442,7 @@
         <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379227</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400151</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
@@ -3478,7 +3478,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V37" t="n">
         <v>216.6422270377822</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880098</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550212997</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
@@ -3566,10 +3566,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368854</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>80.48441923801082</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>11.22989071230104</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400149</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V40" t="n">
         <v>216.6422270377822</v>
@@ -3724,7 +3724,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
         <v>183.089237066049</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880041</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550212991</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V41" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125819</v>
+        <v>49.45308440517557</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321664</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605233</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>6.35651798477393</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729823</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400143</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S43" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901233</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.0892370660489</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>346.4349537862159</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G44" t="n">
         <v>375.4263093674076</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.08151348688007</v>
+        <v>6.081513486880127</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550212995</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y44" t="n">
         <v>350.7425223700077</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125819</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D46" t="n">
         <v>113.1200567321665</v>
       </c>
       <c r="E46" t="n">
-        <v>8.035465717021717</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282749</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400145</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S46" t="n">
-        <v>154.273609045396</v>
+        <v>64.64142553133904</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901233</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>250.716421919567</v>
       </c>
       <c r="V46" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W46" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
         <v>190.2142391029913</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.0892370660489</v>
+        <v>183.089237066049</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.803183213976</v>
+        <v>1318.219765170344</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.803183213976</v>
+        <v>1263.244134476951</v>
       </c>
       <c r="D2" t="n">
-        <v>1222.803183213976</v>
+        <v>1263.244134476951</v>
       </c>
       <c r="E2" t="n">
-        <v>1222.803183213976</v>
+        <v>877.455881878707</v>
       </c>
       <c r="F2" t="n">
-        <v>811.8172784243686</v>
+        <v>466.4699770890995</v>
       </c>
       <c r="G2" t="n">
-        <v>393.6050561902853</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="H2" t="n">
-        <v>63.86626499417599</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244781</v>
+        <v>143.3613405244773</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293493</v>
+        <v>406.641766629348</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024621</v>
+        <v>785.54104360246</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782768</v>
+        <v>1223.746040782765</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400859</v>
+        <v>1654.409655400854</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671742</v>
+        <v>2015.885456671736</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110674</v>
+        <v>2286.722307110668</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045088</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.416384320151</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="T2" t="n">
-        <v>2160.416384320151</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="U2" t="n">
-        <v>1906.634725827661</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="V2" t="n">
-        <v>1575.57183848409</v>
+        <v>2081.824855407235</v>
       </c>
       <c r="W2" t="n">
-        <v>1222.803183213976</v>
+        <v>2081.824855407235</v>
       </c>
       <c r="X2" t="n">
-        <v>1222.803183213976</v>
+        <v>1708.359097146155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.803183213976</v>
+        <v>1318.219765170344</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>922.186677535204</v>
+        <v>853.6128389055675</v>
       </c>
       <c r="C3" t="n">
-        <v>747.733648254077</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
-        <v>598.7992385928258</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="E3" t="n">
-        <v>439.5617835873702</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="F3" t="n">
-        <v>293.0272256142551</v>
+        <v>359.6460529188497</v>
       </c>
       <c r="G3" t="n">
-        <v>154.984199282109</v>
+        <v>221.6030265867035</v>
       </c>
       <c r="H3" t="n">
-        <v>48.25775485501624</v>
+        <v>114.8765821596107</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719581</v>
+        <v>111.2074192719577</v>
       </c>
       <c r="K3" t="n">
-        <v>305.0597375842219</v>
+        <v>345.4192653503507</v>
       </c>
       <c r="L3" t="n">
-        <v>681.3908644604649</v>
+        <v>721.750392226593</v>
       </c>
       <c r="M3" t="n">
-        <v>1172.530760772835</v>
+        <v>1212.890288538963</v>
       </c>
       <c r="N3" t="n">
-        <v>1692.376682095679</v>
+        <v>1536.932332987178</v>
       </c>
       <c r="O3" t="n">
-        <v>2101.518461710703</v>
+        <v>1946.074112602201</v>
       </c>
       <c r="P3" t="n">
-        <v>2412.887742750812</v>
+        <v>2257.44339364231</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750812</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841565</v>
+        <v>2354.422089841558</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.78031163427</v>
+        <v>2354.422089841558</v>
       </c>
       <c r="T3" t="n">
-        <v>1995.403278485703</v>
+        <v>2155.007808179859</v>
       </c>
       <c r="U3" t="n">
-        <v>1995.403278485703</v>
+        <v>1926.829439856067</v>
       </c>
       <c r="V3" t="n">
-        <v>1760.25117025396</v>
+        <v>1691.677331624324</v>
       </c>
       <c r="W3" t="n">
-        <v>1506.013813525759</v>
+        <v>1437.439974896122</v>
       </c>
       <c r="X3" t="n">
-        <v>1298.162313320226</v>
+        <v>1229.588474690589</v>
       </c>
       <c r="Y3" t="n">
-        <v>1090.402014555272</v>
+        <v>1021.828175925636</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="C4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461006</v>
+        <v>91.87143294460965</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384342</v>
+        <v>203.2083598384335</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534285</v>
+        <v>330.9866617534274</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692849</v>
+        <v>461.1612976692834</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984521</v>
+        <v>565.3823477984502</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978451</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978451</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978451</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978451</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978474</v>
+        <v>497.0398848965635</v>
       </c>
       <c r="U4" t="n">
-        <v>565.6644757899942</v>
+        <v>497.0398848965635</v>
       </c>
       <c r="V4" t="n">
-        <v>565.6644757899942</v>
+        <v>497.0398848965635</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2473057530336</v>
+        <v>497.0398848965635</v>
       </c>
       <c r="X4" t="n">
-        <v>48.25775485501624</v>
+        <v>269.0503339985462</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.25775485501624</v>
+        <v>48.25775485501612</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.349585887293</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.349585887293</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D5" t="n">
-        <v>1170.083887280542</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E5" t="n">
-        <v>784.295634682298</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F5" t="n">
-        <v>373.3097298926904</v>
+        <v>178.4141255824937</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>164.4907215210846</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887293</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887293</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.349585887293</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>154.8539665087374</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>154.8539665087374</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>154.8539665087374</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>154.8539665087374</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>154.8539665087374</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>154.8539665087374</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.061315312042</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.061315312042</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1331.061315312042</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1331.061315312042</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>920.0754105224348</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312042</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,13 +4887,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>296.2710210862865</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C10" t="n">
-        <v>127.3348381583796</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.9194859165262</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,19 +5042,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N11" t="n">
-        <v>2883.993034926781</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O11" t="n">
-        <v>3763.957685256236</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5118,40 +5118,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.7061876676665</v>
+        <v>811.5418683145535</v>
       </c>
       <c r="C13" t="n">
-        <v>510.7061876676665</v>
+        <v>811.5418683145535</v>
       </c>
       <c r="D13" t="n">
-        <v>360.5895482553308</v>
+        <v>661.4252289022178</v>
       </c>
       <c r="E13" t="n">
-        <v>360.5895482553308</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553308</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1945.234612686301</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1753.548728513128</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1753.548728513128</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U13" t="n">
-        <v>1464.445861638771</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.761373432884</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3442033959236</v>
+        <v>811.5418683145535</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3546524979063</v>
+        <v>811.5418683145535</v>
       </c>
       <c r="Y13" t="n">
-        <v>692.3546524979063</v>
+        <v>811.5418683145535</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001591</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,22 +5276,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>416.3606924710451</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5306,7 +5306,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,22 +5355,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902953</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4972173763014</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,10 +5434,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1507.339758221762</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U16" t="n">
-        <v>1218.236891347406</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5524031415188</v>
+        <v>1100.959038351513</v>
       </c>
       <c r="W16" t="n">
-        <v>674.1352331045582</v>
+        <v>811.5418683145526</v>
       </c>
       <c r="X16" t="n">
-        <v>446.1456822065411</v>
+        <v>583.5523174165353</v>
       </c>
       <c r="Y16" t="n">
-        <v>446.1456822065411</v>
+        <v>582.3166934139181</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>444.6760255082871</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K17" t="n">
-        <v>1099.399357643587</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1963.918173296941</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2497.450077968866</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4231.23381931859</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.7329138614814</v>
+        <v>727.0030950818859</v>
       </c>
       <c r="C19" t="n">
-        <v>487.0169919945844</v>
+        <v>558.066912153979</v>
       </c>
       <c r="D19" t="n">
-        <v>487.0169919945844</v>
+        <v>558.066912153979</v>
       </c>
       <c r="E19" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715859</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W19" t="n">
-        <v>964.3709295897385</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X19" t="n">
-        <v>736.3813786917211</v>
+        <v>947.7956742254161</v>
       </c>
       <c r="Y19" t="n">
-        <v>736.3813786917211</v>
+        <v>727.0030950818859</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,49 +5753,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O20" t="n">
-        <v>3517.878731871643</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4231.233819318589</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5832,7 +5832,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320243</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.5676213586406</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C22" t="n">
-        <v>392.5676213586406</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D22" t="n">
         <v>242.4509819463048</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799872</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1331.23492978296</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570247</v>
+        <v>1041.817759745999</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590074</v>
+        <v>813.8282088479816</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.5901955154773</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,52 +5987,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6066,7 +6066,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.5895482553302</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C25" t="n">
-        <v>360.5895482553302</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D25" t="n">
-        <v>360.5895482553302</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1586.602425409469</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1297.499558535113</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208121</v>
+        <v>1297.499558535113</v>
       </c>
       <c r="W25" t="n">
-        <v>991.0201431271174</v>
+        <v>1008.082388498152</v>
       </c>
       <c r="X25" t="n">
-        <v>763.0305922291001</v>
+        <v>780.0928376001349</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.2380130855699</v>
+        <v>559.3002584566048</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6227,49 +6227,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2730.494725501681</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3610.459375831136</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
         <v>95.56103444839442</v>
@@ -6382,13 +6382,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6406,7 +6406,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
         <v>1674.827124689058</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783407</v>
+        <v>956.3554313870318</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K29" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1971.087962216428</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3496.417082105039</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3999.389552984376</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4394.163919341554</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,7 +6570,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447819</v>
@@ -6579,7 +6579,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>730.2297869963113</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684044</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6622,19 +6622,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1615.344870073985</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1360.660381868099</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1360.660381868099</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>911.878251826551</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,52 +6698,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>657.7758834233819</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>488.839700495475</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>488.839700495475</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1288.206478295169</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1060.216927397152</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>839.4243482536216</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571327</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386983</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>928.1877967739979</v>
+        <v>607.2838383285447</v>
       </c>
       <c r="L35" t="n">
-        <v>1379.222010022407</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M35" t="n">
-        <v>1912.753914694331</v>
+        <v>2450.352956811728</v>
       </c>
       <c r="N35" t="n">
-        <v>2459.532731753114</v>
+        <v>2997.13177387051</v>
       </c>
       <c r="O35" t="n">
-        <v>2962.505202632451</v>
+        <v>3500.104244749847</v>
       </c>
       <c r="P35" t="n">
-        <v>3675.860290079397</v>
+        <v>3894.878611107025</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752582</v>
+        <v>4143.164972862708</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983637</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.6170717285981</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C36" t="n">
-        <v>785.1640424474712</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D36" t="n">
-        <v>636.22963278622</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807645</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076495</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402678</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781352</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
         <v>84.58533367967276</v>
@@ -7017,13 +7017,13 @@
         <v>178.2626031702901</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506374</v>
+        <v>416.5268021506373</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633024</v>
+        <v>783.2249624633026</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N36" t="n">
         <v>1704.024331240073</v>
@@ -7044,13 +7044,13 @@
         <v>2453.544519866826</v>
       </c>
       <c r="T36" t="n">
-        <v>2260.901519544682</v>
+        <v>2260.901519544681</v>
       </c>
       <c r="U36" t="n">
         <v>2032.833672679097</v>
       </c>
       <c r="V36" t="n">
-        <v>1797.681564447355</v>
+        <v>1797.681564447354</v>
       </c>
       <c r="W36" t="n">
         <v>1543.444207719153</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.05349707252</v>
+        <v>582.2589880867706</v>
       </c>
       <c r="C37" t="n">
-        <v>594.9712699891037</v>
+        <v>449.1767610033544</v>
       </c>
       <c r="D37" t="n">
-        <v>480.7085864212586</v>
+        <v>449.1767610033544</v>
       </c>
       <c r="E37" t="n">
-        <v>480.7085864212586</v>
+        <v>437.8334370515345</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2691667352784</v>
+        <v>326.7974453981149</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544881</v>
+        <v>194.9485646173242</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168366</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497934</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L37" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7126,19 +7126,19 @@
         <v>1830.770373008818</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978952</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617556</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W37" t="n">
         <v>1105.127715425086</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715594</v>
+        <v>912.9921203715589</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.05349707252</v>
+        <v>728.0534970725196</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571325</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J38" t="n">
-        <v>273.4644646386982</v>
+        <v>303.5160722363597</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285447</v>
+        <v>637.3354459262061</v>
       </c>
       <c r="L38" t="n">
-        <v>1058.318051576954</v>
+        <v>1501.854261579561</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.868354406782</v>
+        <v>2035.386166251486</v>
       </c>
       <c r="N38" t="n">
-        <v>2583.647171465564</v>
+        <v>2582.164983310268</v>
       </c>
       <c r="O38" t="n">
-        <v>3143.548912549954</v>
+        <v>3462.129633639723</v>
       </c>
       <c r="P38" t="n">
-        <v>3856.9039999969</v>
+        <v>3856.903999996901</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752582</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.1716476727546</v>
+        <v>582.2589880867697</v>
       </c>
       <c r="C40" t="n">
-        <v>635.0894205893385</v>
+        <v>449.1767610033535</v>
       </c>
       <c r="D40" t="n">
-        <v>520.8267370214935</v>
+        <v>449.1767610033535</v>
       </c>
       <c r="E40" t="n">
-        <v>408.7675992835912</v>
+        <v>449.1767610033535</v>
       </c>
       <c r="F40" t="n">
-        <v>297.7316076301715</v>
+        <v>338.1407693499338</v>
       </c>
       <c r="G40" t="n">
-        <v>165.8827268493807</v>
+        <v>206.2918885691435</v>
       </c>
       <c r="H40" t="n">
-        <v>84.58533367967276</v>
+        <v>95.928657631492</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L40" t="n">
         <v>755.6763338935368</v>
@@ -7348,34 +7348,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>2016.683032594801</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
-        <v>1763.434121564935</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V40" t="n">
-        <v>1544.603589203539</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1291.040375011069</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.904779957543</v>
+        <v>912.992120371558</v>
       </c>
       <c r="Y40" t="n">
-        <v>913.9661566585036</v>
+        <v>728.0534970725187</v>
       </c>
     </row>
     <row r="41">
@@ -7391,64 +7391,64 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.7282765957132</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
-        <v>395.4529905180044</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K41" t="n">
-        <v>729.2723642078508</v>
+        <v>774.6894873488977</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.30657745626</v>
+        <v>1639.208303002252</v>
       </c>
       <c r="M41" t="n">
-        <v>2158.856880286088</v>
+        <v>2172.740207674177</v>
       </c>
       <c r="N41" t="n">
-        <v>2705.635697344871</v>
+        <v>2719.519024732959</v>
       </c>
       <c r="O41" t="n">
-        <v>3208.608168224207</v>
+        <v>3222.491495612296</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671153</v>
+        <v>3646.712159243595</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426835</v>
+        <v>4105.190361752583</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
         <v>2817.294225360971</v>
@@ -7485,7 +7485,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867718</v>
+        <v>582.2589880867697</v>
       </c>
       <c r="C43" t="n">
-        <v>449.1767610033556</v>
+        <v>532.3063775764913</v>
       </c>
       <c r="D43" t="n">
-        <v>334.9140774355108</v>
+        <v>418.0436940086462</v>
       </c>
       <c r="E43" t="n">
-        <v>222.8549396976085</v>
+        <v>305.9845562707437</v>
       </c>
       <c r="F43" t="n">
-        <v>216.434214460463</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="G43" t="n">
-        <v>84.58533367967276</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935372</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M43" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N43" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
         <v>1845.99274148892</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008818</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978952</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617556</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425087</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715601</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725207</v>
+        <v>728.0534970725187</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D44" t="n">
         <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529689</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424561</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571323</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I44" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>303.5160722363588</v>
       </c>
       <c r="K44" t="n">
-        <v>928.1877967739977</v>
+        <v>637.3354459262052</v>
       </c>
       <c r="L44" t="n">
-        <v>1379.222010022406</v>
+        <v>1501.85426157956</v>
       </c>
       <c r="M44" t="n">
-        <v>1912.753914694331</v>
+        <v>2035.386166251485</v>
       </c>
       <c r="N44" t="n">
-        <v>2459.532731753113</v>
+        <v>2582.164983310267</v>
       </c>
       <c r="O44" t="n">
-        <v>2962.50520263245</v>
+        <v>3462.129633639722</v>
       </c>
       <c r="P44" t="n">
-        <v>3675.860290079396</v>
+        <v>3856.9039999969</v>
       </c>
       <c r="Q44" t="n">
         <v>4105.190361752582</v>
@@ -7685,13 +7685,13 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="45">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2589880867711</v>
+        <v>858.7092067778615</v>
       </c>
       <c r="C46" t="n">
-        <v>449.176761003355</v>
+        <v>725.6269796944455</v>
       </c>
       <c r="D46" t="n">
-        <v>334.9140774355101</v>
+        <v>611.3642961266005</v>
       </c>
       <c r="E46" t="n">
-        <v>326.7974453981144</v>
+        <v>499.305158388698</v>
       </c>
       <c r="F46" t="n">
-        <v>326.7974453981144</v>
+        <v>388.2691667352784</v>
       </c>
       <c r="G46" t="n">
-        <v>194.9485646173242</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I46" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218555</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L46" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7825,31 +7825,31 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.683032594801</v>
+        <v>2107.220591699908</v>
       </c>
       <c r="T46" t="n">
-        <v>1830.770373008818</v>
+        <v>2107.220591699908</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.521461978952</v>
+        <v>1853.971680670043</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.690929617556</v>
+        <v>1635.141148308647</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.127715425086</v>
+        <v>1381.577934116176</v>
       </c>
       <c r="X46" t="n">
-        <v>912.9921203715596</v>
+        <v>1189.44233906265</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.05349707252</v>
+        <v>1004.50371576361</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>223.6980372488113</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>281.5606805307983</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.06279368686297</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,22 +8690,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>229.1155640189938</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>315.167921710932</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8544041422902</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448422</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>285.0508825989992</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>257.9017284501182</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>77.35795430876934</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.8724342601037</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>27.35822683245138</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>30.35515918955701</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>57.50431333843733</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>123.2207332114203</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>29.74373462032406</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>30.3551591895561</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>182.8724342601052</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>42.43028133356434</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.93438778582906</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>53.73645647354647</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>217.3613855895038</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>100.2080584503999</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>11.70930691181307</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.409631766669</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>227.9731325171306</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>132.2064969893765</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>278.5203647258335</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.61145443660426</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696638</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>37.5553808052488</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>67.86890643330842</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605234</v>
+        <v>99.70865564822161</v>
       </c>
       <c r="F37" t="n">
-        <v>18.41060624776502</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>28.77517939026411</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379224</v>
+        <v>49.62711341149127</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>82.29832040740648</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>103.5691137521114</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282749</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379219</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>102.9030806435016</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379222</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>89.63218351405705</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>960911.1246076263</v>
+        <v>960911.1246076265</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>960911.1246076262</v>
+        <v>960911.1246076265</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>960911.1246076263</v>
+        <v>960911.1246076265</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>960911.1246076263</v>
+        <v>960911.1246076262</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>960911.1246076263</v>
+        <v>960911.1246076265</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>976126.6590652356</v>
+        <v>976126.6590652358</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>976126.6590652358</v>
+        <v>976126.6590652356</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>976126.6590652358</v>
+        <v>976126.6590652356</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>976126.6590652358</v>
+        <v>976126.6590652356</v>
       </c>
     </row>
   </sheetData>
@@ -26320,19 +26320,19 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.054920031</v>
       </c>
       <c r="F2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="G2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="I2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.054920031</v>
       </c>
       <c r="J2" t="n">
         <v>456644.0549200309</v>
@@ -26344,16 +26344,16 @@
         <v>456644.0549200309</v>
       </c>
       <c r="M2" t="n">
-        <v>468322.1547842052</v>
+        <v>468322.1547842054</v>
       </c>
       <c r="N2" t="n">
+        <v>468322.1547842054</v>
+      </c>
+      <c r="O2" t="n">
+        <v>468322.1547842054</v>
+      </c>
+      <c r="P2" t="n">
         <v>468322.1547842053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>468322.1547842053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>468322.1547842054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394268</v>
+        <v>507203.1428394249</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418052</v>
+        <v>78665.28217418224</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410734</v>
+        <v>157829.400141073</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022173</v>
+        <v>18289.94367022231</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547198</v>
+        <v>232017.7717547203</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289569</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="J4" t="n">
         <v>28561.83935289575</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289573</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501856</v>
+        <v>55718.30868501858</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501861</v>
+        <v>55718.30868501855</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501868</v>
+        <v>55718.30868501855</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501864</v>
+        <v>55718.30868501858</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133431</v>
+        <v>77204.68871133419</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-344326.5856335179</v>
+        <v>-344326.5856335165</v>
       </c>
       <c r="C6" t="n">
-        <v>100652.2419713397</v>
+        <v>100652.241971338</v>
       </c>
       <c r="D6" t="n">
-        <v>179317.5241455203</v>
+        <v>179317.5241455201</v>
       </c>
       <c r="E6" t="n">
-        <v>-395678.7166799852</v>
+        <v>-395745.9121702109</v>
       </c>
       <c r="F6" t="n">
-        <v>331698.6973134215</v>
+        <v>331631.5018231957</v>
       </c>
       <c r="G6" t="n">
-        <v>331698.6973134216</v>
+        <v>331631.5018231954</v>
       </c>
       <c r="H6" t="n">
-        <v>331698.6973134215</v>
+        <v>331631.5018231957</v>
       </c>
       <c r="I6" t="n">
-        <v>331698.6973134215</v>
+        <v>331631.5018231958</v>
       </c>
       <c r="J6" t="n">
-        <v>173869.2971723481</v>
+        <v>173802.1016821227</v>
       </c>
       <c r="K6" t="n">
-        <v>313408.7536431998</v>
+        <v>313341.5581529734</v>
       </c>
       <c r="L6" t="n">
-        <v>331698.6973134215</v>
+        <v>331631.5018231957</v>
       </c>
       <c r="M6" t="n">
-        <v>197729.0050897749</v>
+        <v>197712.5839467848</v>
       </c>
       <c r="N6" t="n">
-        <v>321577.7962779499</v>
+        <v>321561.3751349598</v>
       </c>
       <c r="O6" t="n">
-        <v>321577.7962779498</v>
+        <v>321561.3751349598</v>
       </c>
       <c r="P6" t="n">
-        <v>321577.7962779501</v>
+        <v>321561.3751349597</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>35.49541628604582</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688965</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26762,13 +26762,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877015</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26823,10 +26823,10 @@
         <v>1057.316670995909</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
         <v>1057.316670995909</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688965</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818879</v>
+        <v>61.17508524819016</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877015</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685263</v>
+        <v>71.06533706685411</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877015</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685263</v>
+        <v>71.06533706685423</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.2219356877015</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685263</v>
+        <v>71.06533706685411</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>310.8470173845492</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>145.9601071830963</v>
+        <v>161.4125322208646</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866747</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776876</v>
       </c>
       <c r="T2" t="n">
         <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>133.8407392748888</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.035360425222</v>
       </c>
       <c r="T3" t="n">
-        <v>1.026876028000657</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8965846405547</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>138.2831165792401</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255608</v>
+        <v>52.99928112255625</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273908</v>
+        <v>38.36018782739101</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>151.6253882365111</v>
       </c>
       <c r="S4" t="n">
         <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5064544755703</v>
+        <v>92.8455696123016</v>
       </c>
       <c r="U4" t="n">
-        <v>221.5653515847029</v>
+        <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>97.6110894291923</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>214.4805104606442</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>56.26901400030589</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>32.16715461496375</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>75.95753524357737</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>198.2516768029394</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.958184084211591e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.094235813070554e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604591</v>
+        <v>35.49541628604578</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604588</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392553</v>
+        <v>1.272637503392548</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161899</v>
+        <v>13.03339883161893</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954146</v>
+        <v>49.06335734954125</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035638</v>
+        <v>108.0135173035634</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221707</v>
+        <v>161.8842628221699</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166205</v>
+        <v>200.8317428166197</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175779</v>
+        <v>223.4640100175769</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324092</v>
+        <v>227.079891324091</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497323</v>
+        <v>214.4251021497313</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847286</v>
+        <v>183.0068637847278</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944827</v>
+        <v>137.4305331944821</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248256</v>
+        <v>79.94231557248222</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855784</v>
+        <v>29.00022710855771</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100905</v>
+        <v>5.570970671100882</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714042</v>
+        <v>0.1018110002714038</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859314</v>
+        <v>0.6809210943859284</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674654</v>
+        <v>6.576264253674625</v>
       </c>
       <c r="I3" t="n">
-        <v>23.4439938198665</v>
+        <v>23.4439938198664</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933048</v>
+        <v>64.33211093933021</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631879</v>
+        <v>109.9538242631874</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665594</v>
+        <v>147.8464858665587</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380493</v>
+        <v>172.5298755380486</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648743</v>
+        <v>177.0962279648735</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313755</v>
+        <v>162.0084500313748</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674328</v>
+        <v>130.0260640674323</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915854</v>
+        <v>86.91898039915817</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248793</v>
+        <v>42.27683777248775</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861587</v>
+        <v>12.64781067861581</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739784</v>
+        <v>2.744589849739772</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012708</v>
+        <v>0.04479744042012689</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111273</v>
+        <v>0.5708613719111248</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173481</v>
+        <v>5.075476561173459</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801827</v>
+        <v>17.16735834801819</v>
       </c>
       <c r="J4" t="n">
-        <v>40.3598989941167</v>
+        <v>40.35989899411652</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840187</v>
+        <v>66.32371211840157</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667797</v>
+        <v>84.8715170566776</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148697</v>
+        <v>89.48511487148659</v>
       </c>
       <c r="N4" t="n">
-        <v>87.3573588489092</v>
+        <v>87.35735884890883</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952201</v>
+        <v>80.68866009521975</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823304</v>
+        <v>69.04308810823274</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430358</v>
+        <v>47.80185542430338</v>
       </c>
       <c r="R4" t="n">
-        <v>25.6680031406585</v>
+        <v>25.66800314065839</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760279</v>
+        <v>9.948556817760236</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711179</v>
+        <v>2.439134952711169</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333425</v>
+        <v>0.03113789301333412</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32552,10 +32552,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33515,10 +33515,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895131</v>
+        <v>96.06422794895084</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483548</v>
+        <v>265.9398243483541</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970837</v>
+        <v>382.7265423970829</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831376</v>
+        <v>442.6313102831367</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394852</v>
+        <v>435.0137521394843</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907909</v>
+        <v>365.1270719907899</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009416</v>
+        <v>273.5725762009408</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799379</v>
+        <v>127.4398339799373</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307262</v>
+        <v>63.58551961307235</v>
       </c>
       <c r="K3" t="n">
-        <v>195.8104225376402</v>
+        <v>236.577622301407</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901444</v>
+        <v>380.1324513901437</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660309</v>
+        <v>496.1009053660302</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250945</v>
+        <v>327.3151964123385</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636606</v>
+        <v>413.2745248636599</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930397</v>
+        <v>314.5144252930392</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>157.0144940489857</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251902</v>
+        <v>44.05422029251872</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169941</v>
+        <v>112.4615423169937</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333276</v>
+        <v>129.0689918333272</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281378</v>
+        <v>131.4895312281374</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092598</v>
+        <v>105.2737880092594</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312652</v>
+        <v>66.32164737312623</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,22 +35410,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>684.7056784113259</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>713.9299079303039</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>324.040058608738</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>352.6414051110027</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485618</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>793.1038834872184</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36142,7 +36142,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36595,10 +36595,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>656.6637146694901</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>328.1522591124889</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>433.6667390638233</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>86.97142537467616</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911206</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
       </c>
       <c r="L37" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
         <v>383.1287956795297</v>
       </c>
       <c r="N37" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P37" t="n">
         <v>270.4524874311563</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>221.1421601582696</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>565.5573142266564</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911208</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303654</v>
@@ -37707,19 +37707,19 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O40" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>314.0077341801329</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37795,13 +37795,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>428.5057208396959</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911213</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L43" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N43" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>221.1421601582687</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,13 +38029,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>433.6667390638247</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911211</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
         <v>383.1287956795297</v>
       </c>
       <c r="N46" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
         <v>270.4524874311563</v>
